--- a/Final Presentation/11. Functional Requirements (User Stories).xlsx
+++ b/Final Presentation/11. Functional Requirements (User Stories).xlsx
@@ -142,7 +142,8 @@
 </t>
   </si>
   <si>
-    <t>to get tips about how to keep house dog friendly</t>
+    <t>verify whether the housing conditions that I have specified are 
+favourable for taking care of my dog.</t>
   </si>
   <si>
     <t>TBD</t>
@@ -157,10 +158,10 @@
     <t>Subscribed User, Customer Support Manager, Advertisement sales Management</t>
   </si>
   <si>
-    <t>check where the sitter is currently</t>
-  </si>
-  <si>
-    <t>see how far he is, in which area he is</t>
+    <t>access location of the sitter</t>
+  </si>
+  <si>
+    <t>see how long it will take for sitter to reach my house</t>
   </si>
   <si>
     <t>04.02 Estimated Arrival time</t>
@@ -261,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -291,6 +292,9 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -369,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -413,6 +417,9 @@
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -974,7 +981,7 @@
       <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="7"/>
@@ -1005,16 +1012,16 @@
       <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="7"/>
@@ -1043,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1083,7 +1090,7 @@
       <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1121,7 +1128,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -1159,7 +1166,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1199,7 +1206,7 @@
       <c r="B15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1237,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="6" t="s">
